--- a/06-junio/4_SANCHEZ/SANCHEZ.xlsx
+++ b/06-junio/4_SANCHEZ/SANCHEZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\4_SANCHEZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\4_SANCHEZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B1EA7-882B-4CBD-A615-1431DD737C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF706D6-D88D-4446-A166-4C40822C82D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23025" yWindow="555" windowWidth="20895" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22380" yWindow="345" windowWidth="20070" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>EMPLEADO</t>
   </si>
@@ -71,16 +71,7 @@
     <t>SAC NO REM</t>
   </si>
   <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>NO REM SAC</t>
-  </si>
-  <si>
-    <t>ABRIL 2025</t>
+    <t>JUNIO Y SAC 2025</t>
   </si>
 </sst>
 </file>
@@ -161,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -188,10 +179,9 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,17 +496,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
@@ -530,7 +520,7 @@
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -594,84 +584,141 @@
         <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>512008.37</v>
+        <v>555389.9</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="11">
         <f>+B7+C7</f>
-        <v>512008.37</v>
+        <v>555389.9</v>
       </c>
       <c r="E7" s="9">
-        <v>24750.89</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="13">
         <f>+E7+F7</f>
-        <v>24750.89</v>
+        <v>20000</v>
       </c>
       <c r="H7" s="9">
         <f>+D7+G7</f>
-        <v>536759.26</v>
+        <v>575389.9</v>
       </c>
       <c r="I7" s="9">
         <f>+H7*2</f>
-        <v>1073518.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="14">
-        <v>898275.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>3</v>
+        <v>1150779.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>555389.9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>277695</v>
+      </c>
+      <c r="D11" s="11">
+        <f>+B11+C11</f>
+        <v>833084.9</v>
+      </c>
+      <c r="E11" s="9">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="13">
+        <f>+E11+F11</f>
+        <v>30000</v>
+      </c>
+      <c r="H11" s="9">
+        <f>+D11+G11</f>
+        <v>863084.9</v>
+      </c>
+      <c r="I11" s="9">
+        <f>+H11*2</f>
+        <v>1726169.8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>26279.08</v>
-      </c>
-      <c r="D12">
-        <v>26948.27</v>
-      </c>
-      <c r="E12">
-        <f>+C12-D12</f>
-        <v>-669.18999999999869</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="17">
-        <f>324667.7/2</f>
-        <v>162333.85</v>
-      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="17">
-        <f>59756.64/2</f>
-        <v>29878.32</v>
-      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
